--- a/Semestre2/Exploitation Base de Donnée/TP/Export/Compte Rendu/Q5.xlsx
+++ b/Semestre2/Exploitation Base de Donnée/TP/Export/Compte Rendu/Q5.xlsx
@@ -1,42 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Result 1" r:id="rId2" sheetId="1"/>
-    <sheet name="Query" r:id="rId3" sheetId="2"/>
+    <sheet name="Result 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Query" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>NOMDEP</t>
-  </si>
-  <si>
-    <t>COUNT(*)</t>
-  </si>
-  <si>
-    <t>Loire-Atlantique</t>
-  </si>
-  <si>
-    <t>Maine-et-Loire</t>
-  </si>
-  <si>
-    <t>Mayenne</t>
-  </si>
-  <si>
-    <t>Sarthe</t>
-  </si>
-  <si>
-    <t>Vendée</t>
-  </si>
-  <si>
-    <t>select co.nomdep, count(*)
+    <t xml:space="preserve">NOMDEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT(*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loire-Atlantique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maine-et-Loire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarthe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select co.nomdep, count(*)
     from basetd.commune co, basetd.departement de
         where co.nomdep = de.nomdep
             group by co.nomdep
@@ -45,69 +53,196 @@
 </sst>
 </file>
 
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  </cellStyles>
+</styleSheet>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
+  </cols>
   <sheetData>
-    <row>
-      <c t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c t="n">
+      <c r="B2" s="0" t="n">
         <v>194</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
-      <c t="n">
+      <c r="B3" s="0" t="n">
         <v>130</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
-      <c t="n">
+      <c r="B4" s="0" t="n">
         <v>130</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
-      <c t="n">
+      <c r="B5" s="0" t="n">
         <v>221</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>6</v>
       </c>
-      <c t="n">
+      <c r="B6" s="0" t="n">
         <v>197</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row>
-      <c t="s">
+    <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>